--- a/lab4_jacobi/res/lab4_result.xlsx
+++ b/lab4_jacobi/res/lab4_result.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cluster" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="laptop" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="laptop_new" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="cluster_new" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="cluster_new_2" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="clusterLAST" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t xml:space="preserve">число процессов</t>
   </si>
@@ -73,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,12 +119,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,15 +226,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,11 +471,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="21945566"/>
-        <c:axId val="37132489"/>
+        <c:axId val="31732999"/>
+        <c:axId val="26486201"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21945566"/>
+        <c:axId val="31732999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37132489"/>
+        <c:crossAx val="26486201"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -566,7 +560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37132489"/>
+        <c:axId val="26486201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21945566"/>
+        <c:crossAx val="31732999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -819,11 +813,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="31585561"/>
-        <c:axId val="36951212"/>
+        <c:axId val="87180509"/>
+        <c:axId val="50248440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31585561"/>
+        <c:axId val="87180509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36951212"/>
+        <c:crossAx val="50248440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -908,7 +902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36951212"/>
+        <c:axId val="50248440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +979,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31585561"/>
+        <c:crossAx val="87180509"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1060,10 +1054,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.243098524512137"/>
-          <c:y val="0.229677645409951"/>
-          <c:w val="0.72013326987149"/>
-          <c:h val="0.459705676243868"/>
+          <c:x val="0.243021132272372"/>
+          <c:y val="0.229704606486263"/>
+          <c:w val="0.72006261414036"/>
+          <c:h val="0.459615781863251"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1172,11 +1166,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="46387754"/>
-        <c:axId val="1167303"/>
+        <c:axId val="61653279"/>
+        <c:axId val="84217485"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46387754"/>
+        <c:axId val="61653279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167303"/>
+        <c:crossAx val="84217485"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1167303"/>
+        <c:axId val="84217485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1332,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46387754"/>
+        <c:crossAx val="61653279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1514,11 +1508,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63333630"/>
-        <c:axId val="96765434"/>
+        <c:axId val="82807097"/>
+        <c:axId val="62670539"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63333630"/>
+        <c:axId val="82807097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1589,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96765434"/>
+        <c:crossAx val="62670539"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1603,7 +1597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96765434"/>
+        <c:axId val="62670539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63333630"/>
+        <c:crossAx val="82807097"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1758,7 +1752,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cluster_new_2!$B$1</c:f>
+              <c:f>clusterLAST!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1813,9 +1807,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>cluster_new_2!$A$2:$A$4</c:f>
+              <c:f>clusterLAST!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1824,24 +1818,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cluster_new_2!$B$2:$B$4</c:f>
+              <c:f>clusterLAST!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>47.024</c:v>
+                  <c:v>3.90757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.787</c:v>
+                  <c:v>3.49905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.31</c:v>
+                  <c:v>1.78751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.87174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.984717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,11 +1862,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74817078"/>
-        <c:axId val="7375148"/>
+        <c:axId val="65755010"/>
+        <c:axId val="89178113"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74817078"/>
+        <c:axId val="65755010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7375148"/>
+        <c:crossAx val="89178113"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7375148"/>
+        <c:axId val="89178113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,7 +2028,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74817078"/>
+        <c:crossAx val="65755010"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2097,10 +2103,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.242989435241946"/>
-          <c:y val="0.22965716646014"/>
-          <c:w val="0.720099126124951"/>
-          <c:h val="0.459520859149112"/>
+          <c:x val="0.243021132272372"/>
+          <c:y val="0.229704606486263"/>
+          <c:w val="0.72006261414036"/>
+          <c:h val="0.459409212972526"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2111,7 +2117,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cluster_new_2!$D$1</c:f>
+              <c:f>clusterLAST!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2166,9 +2172,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>cluster_new_2!$C$2:$C$4</c:f>
+              <c:f>clusterLAST!$C$2:$C$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2177,24 +2183,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cluster_new_2!$D$2:$D$4</c:f>
+              <c:f>clusterLAST!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.89712349215314</c:v>
+                  <c:v>1.11675168974436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8199837530463</c:v>
+                  <c:v>2.18604091725361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.08766709051471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.96821624893243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,11 +2227,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43597682"/>
-        <c:axId val="28565282"/>
+        <c:axId val="39897584"/>
+        <c:axId val="50852094"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43597682"/>
+        <c:axId val="39897584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2308,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28565282"/>
+        <c:crossAx val="50852094"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2298,7 +2316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28565282"/>
+        <c:axId val="50852094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2393,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43597682"/>
+        <c:crossAx val="39897584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2453,7 +2471,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cluster_new_2!$F$1</c:f>
+              <c:f>clusterLAST!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2508,9 +2526,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>cluster_new_2!$E$2:$E$4</c:f>
+              <c:f>clusterLAST!$E$2:$E$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2519,24 +2537,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cluster_new_2!$F$2:$F$4</c:f>
+              <c:f>clusterLAST!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.8561746076572</c:v>
+                  <c:v>55.837584487218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.4995938261576</c:v>
+                  <c:v>54.6510229313403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.0958386314339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.8013515558277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,11 +2581,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="52569896"/>
-        <c:axId val="71219143"/>
+        <c:axId val="85810389"/>
+        <c:axId val="13957475"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52569896"/>
+        <c:axId val="85810389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71219143"/>
+        <c:crossAx val="13957475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71219143"/>
+        <c:axId val="13957475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52569896"/>
+        <c:crossAx val="85810389"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2905,11 +2935,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33228119"/>
-        <c:axId val="29001220"/>
+        <c:axId val="34296502"/>
+        <c:axId val="67726808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33228119"/>
+        <c:axId val="34296502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +3016,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29001220"/>
+        <c:crossAx val="67726808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2994,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29001220"/>
+        <c:axId val="67726808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,7 +3101,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33228119"/>
+        <c:crossAx val="34296502"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3259,11 +3289,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33701580"/>
-        <c:axId val="93551042"/>
+        <c:axId val="24921196"/>
+        <c:axId val="89669978"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33701580"/>
+        <c:axId val="24921196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,7 +3370,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93551042"/>
+        <c:crossAx val="89669978"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3348,7 +3378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93551042"/>
+        <c:axId val="89669978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,7 +3455,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33701580"/>
+        <c:crossAx val="24921196"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3607,11 +3637,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="2694483"/>
-        <c:axId val="80713314"/>
+        <c:axId val="37607893"/>
+        <c:axId val="4332357"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2694483"/>
+        <c:axId val="37607893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3688,7 +3718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80713314"/>
+        <c:crossAx val="4332357"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3696,7 +3726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80713314"/>
+        <c:axId val="4332357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,7 +3803,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2694483"/>
+        <c:crossAx val="37607893"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3848,10 +3878,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.122970779220779"/>
-          <c:y val="0.162035428968392"/>
-          <c:w val="0.857751623376623"/>
-          <c:h val="0.684960055574852"/>
+          <c:x val="0.122983257229833"/>
+          <c:y val="0.16206357477853"/>
+          <c:w val="0.857635717909691"/>
+          <c:h val="0.684905332638527"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3972,11 +4002,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="26612123"/>
-        <c:axId val="48381705"/>
+        <c:axId val="59490324"/>
+        <c:axId val="71737530"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26612123"/>
+        <c:axId val="59490324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,7 +4083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48381705"/>
+        <c:crossAx val="71737530"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4061,7 +4091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48381705"/>
+        <c:axId val="71737530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4138,7 +4168,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26612123"/>
+        <c:crossAx val="59490324"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4320,11 +4350,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="73525307"/>
-        <c:axId val="39082850"/>
+        <c:axId val="14314905"/>
+        <c:axId val="16207471"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73525307"/>
+        <c:axId val="14314905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39082850"/>
+        <c:crossAx val="16207471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4409,7 +4439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39082850"/>
+        <c:axId val="16207471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,7 +4516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73525307"/>
+        <c:crossAx val="14314905"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4668,11 +4698,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98210703"/>
-        <c:axId val="74701759"/>
+        <c:axId val="35758972"/>
+        <c:axId val="30614452"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98210703"/>
+        <c:axId val="35758972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,7 +4779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74701759"/>
+        <c:crossAx val="30614452"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4757,7 +4787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74701759"/>
+        <c:axId val="30614452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4834,7 +4864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98210703"/>
+        <c:crossAx val="35758972"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4909,10 +4939,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.122970779220779"/>
-          <c:y val="0.162035428968392"/>
-          <c:w val="0.857751623376623"/>
-          <c:h val="0.684960055574852"/>
+          <c:x val="0.122983257229833"/>
+          <c:y val="0.16206357477853"/>
+          <c:w val="0.857635717909691"/>
+          <c:h val="0.684905332638527"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5033,11 +5063,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79989734"/>
-        <c:axId val="30119929"/>
+        <c:axId val="74358331"/>
+        <c:axId val="23226733"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79989734"/>
+        <c:axId val="74358331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5114,7 +5144,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30119929"/>
+        <c:crossAx val="23226733"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5122,7 +5152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30119929"/>
+        <c:axId val="23226733"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,7 +5229,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79989734"/>
+        <c:crossAx val="74358331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5381,11 +5411,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="80244125"/>
-        <c:axId val="44477417"/>
+        <c:axId val="82252498"/>
+        <c:axId val="14082274"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80244125"/>
+        <c:axId val="82252498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5462,7 +5492,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44477417"/>
+        <c:crossAx val="14082274"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5470,7 +5500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44477417"/>
+        <c:axId val="14082274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,7 +5577,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80244125"/>
+        <c:crossAx val="82252498"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5585,9 +5615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5596,7 +5626,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8280" y="1251360"/>
-        <a:ext cx="3690360" cy="2274120"/>
+        <a:ext cx="3690000" cy="2273760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5615,9 +5645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5626,7 +5656,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3692160" y="1326240"/>
-        <a:ext cx="3025440" cy="2054880"/>
+        <a:ext cx="3025080" cy="2054520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5638,16 +5668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>788760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>865440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5655,8 +5685,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6682680" y="1024920"/>
-        <a:ext cx="4023000" cy="2234880"/>
+        <a:off x="52200" y="3653640"/>
+        <a:ext cx="3125160" cy="1670040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5680,9 +5710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>366120</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5691,7 +5721,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="30960" y="1541160"/>
-        <a:ext cx="3258000" cy="2162160"/>
+        <a:ext cx="3257640" cy="2161800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5710,9 +5740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>699480</xdr:colOff>
+      <xdr:colOff>699120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5721,7 +5751,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3441960" y="1591560"/>
-        <a:ext cx="3547800" cy="2072520"/>
+        <a:ext cx="3547440" cy="2072160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5740,9 +5770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5751,7 +5781,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1136880" y="3874320"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5775,9 +5805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>366120</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5786,7 +5816,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="30960" y="1541160"/>
-        <a:ext cx="3258000" cy="2162160"/>
+        <a:ext cx="3257640" cy="2161800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5805,9 +5835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>699480</xdr:colOff>
+      <xdr:colOff>699120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5816,7 +5846,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3441960" y="1591560"/>
-        <a:ext cx="3547800" cy="2072520"/>
+        <a:ext cx="3547440" cy="2072160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5835,9 +5865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5846,7 +5876,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1136880" y="3874320"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5870,9 +5900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>511560</xdr:colOff>
+      <xdr:colOff>511200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5881,6 +5911,101 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="34920" y="935640"/>
+        <a:ext cx="2788200" cy="1748160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17280" y="2751480"/>
+        <a:ext cx="2759400" cy="1742400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2805840" y="1591560"/>
+        <a:ext cx="2886840" cy="1747800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>517320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="40680" y="1154160"/>
         <a:ext cx="2788560" cy="1748520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5900,18 +6025,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>465120</xdr:colOff>
+      <xdr:colOff>464760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="13" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17280" y="2751480"/>
-        <a:ext cx="2759760" cy="1742760"/>
+        <a:ext cx="2759400" cy="1742400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5930,104 +6055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
+      <xdr:colOff>435600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="2805840" y="1591560"/>
-        <a:ext cx="2887200" cy="1748160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>511560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="34920" y="935640"/>
-        <a:ext cx="2788560" cy="1748520"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>465120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="17280" y="2751480"/>
-        <a:ext cx="2759760" cy="1742760"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>493920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6036,7 +6066,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2805840" y="1591560"/>
-        <a:ext cx="2887200" cy="1748160"/>
+        <a:ext cx="2886840" cy="1747800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6162,8 +6192,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6672,7 +6702,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6818,10 +6848,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6833,7 +6863,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6851,17 +6881,14 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4"/>
+      <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>47.024</v>
+        <v>3.90757</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -6877,11 +6904,8 @@
         <f aca="false">(D2/A2)*100</f>
         <v>100</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="0"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,27 +6913,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>24.787</v>
+        <v>3.49905</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">$B$2/B3</f>
-        <v>1.89712349215314</v>
+        <v>1.11675168974436</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="n">
         <f aca="false">(D3/A3)*100</f>
-        <v>94.8561746076572</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>55.837584487218</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,51 +6938,106 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>12.31</v>
+        <v>1.78751</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">$B$2/B4</f>
-        <v>3.8199837530463</v>
+        <v>2.18604091725361</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F4" s="5" t="n">
         <f aca="false">(D4/A4)*100</f>
-        <v>95.4995938261576</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
+        <v>54.6510229313403</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.87174</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">$B$2/B5</f>
+        <v>2.08766709051471</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">(D5/A5)*100</f>
+        <v>26.0958386314339</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
+      <c r="A6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.984717</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">$B$2/B6</f>
+        <v>3.96821624893243</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">(D6/A6)*100</f>
+        <v>24.8013515558277</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J10" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:H4"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
